--- a/examples/parents_children.xlsx
+++ b/examples/parents_children.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="28695" windowHeight="13965" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="!README" sheetId="1" r:id="rId1"/>
-    <sheet name="!Parent" sheetId="3" r:id="rId2"/>
-    <sheet name="!Child" sheetId="2" r:id="rId3"/>
-    <sheet name="!DEFINITION" sheetId="4" r:id="rId4"/>
+    <sheet name="!_Table of contents" sheetId="1" r:id="rId1"/>
+    <sheet name="!_Schema" sheetId="4" r:id="rId2"/>
+    <sheet name="!Parent" sheetId="3" r:id="rId3"/>
+    <sheet name="!Child" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!README'!$A$2:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Child'!$A$3:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!_Table of contents'!$A$2:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Child'!$A$3:$G$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -160,7 +160,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
-    <t>!!SBtab TableID='README' TableName='Readme' Description='Table/model and column/attribute definitions' Date='2019-09-18 13:17:59' SBtabVersion='2.0'</t>
+    <t>!!SBtab TableType='TableOfContents' TableName='Table of contents' Description='Table/model and column/attribute definitions' Date='2019-09-18 13:17:59' SBtabVersion='2.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -178,7 +178,79 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>!!SBtab TableID='Parent' TableName='Parent' Date='2019-09-18 13:17:59' SBtabVersion='2.0'</t>
+    <t>!!SBtab TableType='Schema' TableName='Table/model and column/attribute definitions' SBtabVersion='2.0'</t>
+  </si>
+  <si>
+    <t>!ComponentName</t>
+  </si>
+  <si>
+    <t>!ComponentType</t>
+  </si>
+  <si>
+    <t>!IsPartOf</t>
+  </si>
+  <si>
+    <t>!Format</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>string(unique=True, primary=True)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>enum(['female', 'male'])</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>manyToMany('Parent', related_name='children')</t>
+  </si>
+  <si>
+    <t>FavoriteVideoGame</t>
+  </si>
+  <si>
+    <t>manyToOne('Game', related_name='children')</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>multiple_cells</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>!!SBtab TableType='Data' TableID='Parent' TableName='Parent' Date='2019-09-18 13:17:59' SBtabVersion='2.0'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -211,7 +283,7 @@
     <t>Richard Roe</t>
   </si>
   <si>
-    <t>!!SBtab TableID='Child' TableName='Child' Date='2019-09-18 13:17:59' SBtabVersion='2.0'</t>
+    <t>!!SBtab TableType='Data' TableID='Child' TableName='Child' Date='2019-09-18 13:17:59' SBtabVersion='2.0'</t>
   </si>
   <si>
     <t>!FavoriteVideoGame</t>
@@ -284,78 +356,6 @@
   </si>
   <si>
     <t>Electronic Arts</t>
-  </si>
-  <si>
-    <t>!!SBtab TableID='DEFINITION' TableName='Table/model and column/attribute definitions' SBtabVersion='2.0'</t>
-  </si>
-  <si>
-    <t>!ComponentName</t>
-  </si>
-  <si>
-    <t>!ComponentType</t>
-  </si>
-  <si>
-    <t>!IsPartOf</t>
-  </si>
-  <si>
-    <t>!Format</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>column</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>string(unique=True, primary=True)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>enum(['female', 'male'])</t>
-  </si>
-  <si>
-    <t>Parents</t>
-  </si>
-  <si>
-    <t>manyToMany('Parent', related_name='children')</t>
-  </si>
-  <si>
-    <t>FavoriteVideoGame</t>
-  </si>
-  <si>
-    <t>manyToOne('Game', related_name='children')</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>multiple_cells</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -363,12 +363,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +388,119 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -399,44 +512,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -444,30 +519,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,66 +533,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -556,79 +549,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFAAAAAA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,25 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,85 +741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,6 +758,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -787,22 +834,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,23 +842,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,175 +858,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,12 +1014,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1382,7 +1375,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1399,38 +1392,38 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <f>COUNTA('!Child'!A4:A1048576)</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <f>COUNTA('!Parent'!B2:XFD2)</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:C4">
     <extLst/>
   </autoFilter>
@@ -1446,6 +1439,228 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1453,7 +1668,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1464,7 +1679,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1472,41 +1687,41 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:E3" errorStyle="warning">
       <formula1>255</formula1>
@@ -1521,15 +1736,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1540,7 +1755,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1550,132 +1765,132 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="4">
         <v>1986</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="4">
         <v>1985</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="4">
         <v>1991</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="4">
         <v>1989</v>
       </c>
     </row>
@@ -1688,10 +1903,6 @@
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Year" error="Value must be an integer." promptTitle="!Year" prompt="Enter an integer." sqref="G4:G7" errorStyle="warning">
-      <formula1>-32768</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Publisher" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Publisher" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F4:F7" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
@@ -1699,6 +1910,10 @@
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Parents" error="Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" prompt="Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." sqref="D4:D7" errorStyle="warning"/>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Year" error="Value must be an integer." promptTitle="!Year" prompt="Enter an integer." sqref="G4:G7" errorStyle="warning">
+      <formula1>-32768</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="!Gender" error="Value must be one of &quot;female&quot;, &quot;male&quot;." promptTitle="!Gender" prompt="Select one of &quot;female&quot;, &quot;male&quot;." sqref="C4:C7" errorStyle="warning">
       <formula1>"female,male"</formula1>
     </dataValidation>
@@ -1713,226 +1928,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/examples/parents_children.xlsx
+++ b/examples/parents_children.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" activeTab="3"/>
+    <workbookView windowWidth="20295" windowHeight="6945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
-  <si>
-    <t>!!SBtab TableType='TableOfContents' TableName='Table of contents' Description='Table/model and column/attribute definitions' Date='2019-09-18 13:17:59' SBtabVersion='2.0'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+  <si>
+    <t>!!ObjTables TableType='TableOfContents' Description='Table/model and column/attribute definitions' Date='2019-09-18 13:17:59' ObjTablesVersion='2.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -178,22 +178,22 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>!!SBtab TableType='Schema' TableName='Table/model and column/attribute definitions' SBtabVersion='2.0'</t>
-  </si>
-  <si>
-    <t>!ComponentName</t>
-  </si>
-  <si>
-    <t>!ComponentType</t>
-  </si>
-  <si>
-    <t>!IsPartOf</t>
+    <t>!!ObjTables TableType='Schema' Description='Table/model and column/attribute definitions' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!Name</t>
+  </si>
+  <si>
+    <t>!Type</t>
+  </si>
+  <si>
+    <t>!Parent</t>
   </si>
   <si>
     <t>!Format</t>
   </si>
   <si>
-    <t>Table</t>
+    <t>Model</t>
   </si>
   <si>
     <t>column</t>
@@ -202,16 +202,16 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>string(unique=True, primary=True)</t>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>String(unique=True, primary=True)</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>string</t>
+    <t>String</t>
   </si>
   <si>
     <t>row</t>
@@ -220,19 +220,19 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>enum(['female', 'male'])</t>
+    <t>Enum(['female', 'male'])</t>
   </si>
   <si>
     <t>Parents</t>
   </si>
   <si>
-    <t>manyToMany('Parent', related_name='children')</t>
+    <t>ManyToMany('Parent', related_name='children')</t>
   </si>
   <si>
     <t>FavoriteVideoGame</t>
   </si>
   <si>
-    <t>manyToOne('Game', related_name='children')</t>
+    <t>ManyToOne('Game', related_name='children')</t>
   </si>
   <si>
     <t>Game</t>
@@ -247,10 +247,10 @@
     <t>Year</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>!!SBtab TableType='Data' TableID='Parent' TableName='Parent' Date='2019-09-18 13:17:59' SBtabVersion='2.0'</t>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>!!ObjTables TableType='Data' ModelId='Parent' ModelName='Parent' Date='2019-09-18 13:17:59' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -268,9 +268,6 @@
     <t>richard_roe</t>
   </si>
   <si>
-    <t>!Name</t>
-  </si>
-  <si>
     <t>Jane Doe</t>
   </si>
   <si>
@@ -283,7 +280,7 @@
     <t>Richard Roe</t>
   </si>
   <si>
-    <t>!!SBtab TableType='Data' TableID='Child' TableName='Child' Date='2019-09-18 13:17:59' SBtabVersion='2.0'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Child' ModelName='Child' Date='2019-09-18 13:17:59' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!FavoriteVideoGame</t>
@@ -363,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -390,6 +387,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -397,8 +440,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,67 +516,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -482,57 +525,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -567,187 +564,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,17 +758,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,15 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -832,9 +823,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,161 +841,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1446,7 +1443,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
@@ -1663,12 +1660,12 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1705,19 +1702,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1738,7 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1755,7 +1752,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1770,13 +1767,13 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
@@ -1784,42 +1781,42 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G4" s="4">
         <v>1986</v>
@@ -1827,22 +1824,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4">
         <v>1985</v>
@@ -1850,22 +1847,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="G6" s="4">
         <v>1991</v>
@@ -1873,22 +1870,22 @@
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="G7" s="4">
         <v>1989</v>
@@ -1903,16 +1900,16 @@
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <dataValidations count="7">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Year" error="Value must be an integer." promptTitle="!Year" prompt="Enter an integer." sqref="G4:G7" errorStyle="warning">
+      <formula1>-32768</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Publisher" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Publisher" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F4:F7" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Parents" error="Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" prompt="Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." sqref="D4:D7" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="!Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="E4:E7" errorStyle="warning">
       <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Parents" error="Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" prompt="Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." sqref="D4:D7" errorStyle="warning"/>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Year" error="Value must be an integer." promptTitle="!Year" prompt="Enter an integer." sqref="G4:G7" errorStyle="warning">
-      <formula1>-32768</formula1>
-      <formula2>32767</formula2>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="!Gender" error="Value must be one of &quot;female&quot;, &quot;male&quot;." promptTitle="!Gender" prompt="Select one of &quot;female&quot;, &quot;male&quot;." sqref="C4:C7" errorStyle="warning">
       <formula1>"female,male"</formula1>

--- a/examples/parents_children.xlsx
+++ b/examples/parents_children.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" activeTab="2"/>
+    <workbookView windowWidth="20295" windowHeight="6840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
-    <t>!!ObjTables TableType='TableOfContents' Description='Table/model and column/attribute definitions' Date='2019-09-18 13:17:59' ObjTablesVersion='2.0'</t>
+    <t>!!ObjTables Type='TableOfContents' Description='Table/model and column/attribute definitions' Date='2019-09-18 13:17:59' ObjTablesVersion='2.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -178,7 +178,7 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Schema' Description='Table/model and column/attribute definitions' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Schema' Description='Table/model and column/attribute definitions' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -193,7 +193,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>Model</t>
+    <t>Class</t>
   </si>
   <si>
     <t>column</t>
@@ -250,7 +250,7 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Parent' ModelName='Parent' Date='2019-09-18 13:17:59' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Parent' Name='Parent' Date='2019-09-18 13:17:59' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -280,7 +280,7 @@
     <t>Richard Roe</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Child' ModelName='Child' Date='2019-09-18 13:17:59' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Child' Name='Child' Date='2019-09-18 13:17:59' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!FavoriteVideoGame</t>
@@ -360,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -396,14 +396,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,39 +501,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,72 +517,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -564,19 +564,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,120 +732,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -709,42 +745,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,11 +758,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,6 +778,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,21 +802,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,6 +832,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -840,136 +855,121 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,10 +978,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -990,10 +990,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1438,12 +1438,12 @@
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
@@ -1660,7 +1660,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1907,10 +1907,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Publisher" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Publisher" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F4:F7" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Parents" error="Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" prompt="Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." sqref="D4:D7" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="!Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="E4:E7" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Parents" error="Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" prompt="Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." sqref="D4:D7" errorStyle="warning"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="!Gender" error="Value must be one of &quot;female&quot;, &quot;male&quot;." promptTitle="!Gender" prompt="Select one of &quot;female&quot;, &quot;male&quot;." sqref="C4:C7" errorStyle="warning">
       <formula1>"female,male"</formula1>
     </dataValidation>

--- a/examples/parents_children.xlsx
+++ b/examples/parents_children.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6840" windowWidth="20295"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20295" windowHeight="6840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Child" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$2:$C$4</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'!!Child'!$A$3:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$2:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Child'!$A$3:$G$7</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -22,9 +22,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -518,223 +518,223 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="36" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="35" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="11" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="14" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -744,14 +744,14 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
@@ -767,43 +767,43 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Select one of "female", "male".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Enter a comma-separated list of values from "!Parent:1" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <t>Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <t>Enter an integer.</t>
       </text>
@@ -1103,28 +1103,28 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="3" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='TableOfContents' Description='Table/model and column/attribute definitions' Date='2019-09-18 13:17:59' ObjTablesVersion='2.0'</t>
+          <t>!!ObjTables type='TableOfContents' description='Table/model and column/attribute definitions' date='2019-09-18 13:17:59' objTablesVersion='2.0'</t>
         </is>
       </c>
       <c r="B2" s="1" t="n"/>
@@ -1174,10 +1174,10 @@
   </sheetData>
   <autoFilter ref="A2:C4"/>
   <hyperlinks>
-    <hyperlink display="!Table" location="'!Child'!A1" ref="A2" tooltip="Click to view !child"/>
-    <hyperlink display="Child" location="'!Parent'!A1" ref="A3" tooltip="Click to view !parent"/>
+    <hyperlink ref="A2" location="'!Child'!A1" tooltip="Click to view !child" display="!Table"/>
+    <hyperlink ref="A3" location="'!Parent'!A1" tooltip="Click to view !parent" display="Child"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1190,19 +1190,19 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G9" pane="bottomRight" sqref="G9"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Schema' Description='Table/model and column/attribute definitions' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Schema' description='Table/model and column/attribute definitions' objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1519,23 +1519,23 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="5" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="6" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="5"/>
+    <col hidden="1" width="9" customWidth="1" min="6" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Parent' Name='Parent' Date='2019-09-18 13:17:59' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Parent' name='Parent' date='2019-09-18 13:17:59' objTablesVersion='0.0.8'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -1599,14 +1599,14 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="!Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" showErrorMessage="1" showInputMessage="1" sqref="B3:E3" type="textLength">
+    <dataValidation sqref="B3:E3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="!Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="!Id" showErrorMessage="1" showInputMessage="1" sqref="B2:E2" type="textLength">
+    <dataValidation sqref="B2:E2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="!Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1620,21 +1620,21 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="7" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="8" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="7"/>
+    <col hidden="1" width="9" customWidth="1" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Child' Name='Child' Date='2019-09-18 13:17:59' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Child' name='Child' date='2019-09-18 13:17:59' objTablesVersion='0.0.8'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -1838,28 +1838,28 @@
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation allowBlank="0" error="Value must be an integer." errorStyle="warning" errorTitle="!Year" operator="between" prompt="Enter an integer." promptTitle="!Year" showErrorMessage="1" showInputMessage="1" sqref="G4:G7" type="whole">
+    <dataValidation sqref="G4:G7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Year" error="Value must be an integer." promptTitle="!Year" prompt="Enter an integer." type="whole" errorStyle="warning" operator="between">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="!Publisher" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Publisher" showErrorMessage="1" showInputMessage="1" sqref="F4:F7" type="textLength">
+    <dataValidation sqref="F4:F7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Publisher" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Publisher" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="!Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="!Name" showErrorMessage="1" showInputMessage="1" sqref="E4:E7" type="textLength">
+    <dataValidation sqref="E4:E7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="!Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." errorStyle="warning" errorTitle="!Parents" prompt="Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" showErrorMessage="1" showInputMessage="1" sqref="D4:D7"/>
-    <dataValidation allowBlank="0" error="Value must be one of &quot;female&quot;, &quot;male&quot;." errorStyle="warning" errorTitle="!Gender" prompt="Select one of &quot;female&quot;, &quot;male&quot;." promptTitle="!Gender" showErrorMessage="1" showInputMessage="1" sqref="C4:C7" type="list">
+    <dataValidation sqref="D4:D7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Parents" error="Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" prompt="Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="C4:C7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Gender" error="Value must be one of &quot;female&quot;, &quot;male&quot;." promptTitle="!Gender" prompt="Select one of &quot;female&quot;, &quot;male&quot;." type="list" errorStyle="warning">
       <formula1>"female,male"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="!Name" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" showErrorMessage="1" showInputMessage="1" sqref="B4:B7" type="textLength">
+    <dataValidation sqref="B4:B7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="!Id" operator="lessThanOrEqual" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="!Id" showErrorMessage="1" showInputMessage="1" sqref="A4:A7" type="textLength">
+    <dataValidation sqref="A4:A7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="!Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>